--- a/src/main/java/com/kmathpal/rest/Model/Template/template.xlsx
+++ b/src/main/java/com/kmathpal/rest/Model/Template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartikmathpal/Documents/JavaProjects/ContentChecker/src/main/java/com/kmathpal/rest/Model/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AE2960-06F5-7C4A-BAA0-42A3B8D684E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E2920C-A699-8245-96C5-03BBAC91E0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>URL A</t>
   </si>
@@ -413,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -425,17 +419,11 @@
     <col min="2" max="2" width="74" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/java/com/kmathpal/rest/Model/Template/template.xlsx
+++ b/src/main/java/com/kmathpal/rest/Model/Template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartikmathpal/Documents/JavaProjects/ContentChecker/src/main/java/com/kmathpal/rest/Model/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E2920C-A699-8245-96C5-03BBAC91E0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB142BC-C86F-4C4D-BDC8-016EA6C9788B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>URL A</t>
   </si>
   <si>
     <t>URL B</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Response</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -419,13 +425,19 @@
     <col min="2" max="2" width="74" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
